--- a/biology/Botanique/Peronosporea/Peronosporea.xlsx
+++ b/biology/Botanique/Peronosporea/Peronosporea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Peronosporea sont une classe de champignons de la division des Oomycota.
 </t>
@@ -511,9 +523,11 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon The Taxonomicon  (3 décembre 2023)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon The Taxonomicon  (3 décembre 2023) :
 Peronosporomycetes M.W.Dick, 2001
 Oomycetes G.Winter, 1880</t>
         </is>
@@ -543,9 +557,11 @@
           <t>Liste des ordres, familles et genres non-classés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 décembre 2023)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 décembre 2023) :
 Albuginales
 Anisolpidiales
 Haptoglossales
@@ -562,7 +578,7 @@
 famille des Miraculaceae
 famille incertae sedis
 genre Ostracoblabe
-Selon le World Register of Marine Species                               (3 décembre 2023)[3] :
+Selon le World Register of Marine Species                               (3 décembre 2023) :
 sous-classe des Albuginidae
 Albuginales
 sous-classe des Peronosporidae
@@ -577,7 +593,7 @@
 Lagenismatales
 Myzocytiopsidales
 Olpidiopsidales
-Selon The Taxonomicon  (3 décembre 2023)[1] :
+Selon The Taxonomicon  (3 décembre 2023) :
 sous-classe des Eogamia Caval.-Sm., 2013
 Haptoglossales M.W.Dick, 2001
 Rozellopsidales M.W.Dick, 2001
